--- a/Auto-Eval-ASI1-r1.xlsx
+++ b/Auto-Eval-ASI1-r1.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zagho\Documents\visualStudio\ASI\ASI_Atelier1_CHOURAQUI_CLEMENT_ZAGHOUANE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E936EA-404D-44CA-B852-F9E5A4D63D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="135" yWindow="-16320" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Auto-Evaluation" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="admin" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Auto-Evaluation" sheetId="1" r:id="rId1"/>
+    <sheet name="admin" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="Note" vbProcedure="false">admin!$A$1:$A$6</definedName>
-    <definedName function="false" hidden="false" name="Notes" vbProcedure="false">admin!$A$2:$A$6</definedName>
+    <definedName name="Note">admin!$A$1:$A$6</definedName>
+    <definedName name="Notes">admin!$A$2:$A$6</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,38 +38,36 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Si tout les étudiants ont contribué de façon équitable 25% pour tout le monde</t>
+          <t>Si tout les étudiants ont contribué de façon équitable 25% pour tout le monde</t>
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Evaluation du niveau de compréhension:
+          <t>Evaluation du niveau de compréhension:
 D- aucune notion
 C- vague notion
 AB- compréhension
@@ -65,15 +76,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B36" authorId="0">
+    <comment ref="B36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Evaluation du niveau de réalisation/mise en oeuvre:
@@ -90,23 +100,23 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Maitrise complète</t>
+          <t>Maitrise complète</t>
         </r>
       </text>
     </comment>
@@ -117,198 +127,197 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="61">
   <si>
-    <t xml:space="preserve">CHOURAQUI Maxime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLEMENT Charles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAGHOUANE Fares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somme implication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atelier 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atelier 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atelier 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implication dans le groupe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compétences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compréhension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web Statique couplé aux Web Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avantages/Inconvénients Web Statique couplé aux Web Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web Dynamique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avantages/Inconvénients Web Dynamique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Architecture MVC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avantages/Inconvénients SOA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Couverture de Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JEE Overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JEE fonctionnement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avantages/Inconvénients Springboot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Architecture MVC en JEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Architecture multi-tiers en JEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Architecture Full REST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Injection de dépendance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestionnaire de dépendance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Springboot Overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Springboot fonctionnement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Architecture MVC en Springboot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Architecture Full Rest en Springboot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Architecture SOA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Architecture Micro Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avantages/Inconvénients Micro Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Unitaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test fonctionnel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test de non régression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonnes pratiques de programmation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mise en œuvre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web Statique couplé aux Web Services (javascript + Ajax)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application Springboot Simple (1 controleur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application Springboot + Thymeleaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application Springboot + Thymeleaf + Controller + service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application SpringBoot helloworld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application SpringBoot + REST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application SpringBoot + REST + JPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application SpringBoot + FULLREST+ JPA + Mysql</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respect du MVC en SpringBoot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Récupération de dépendances via MAVEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajout de dependance dans MAVEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Découpage d'un projet en MicrosService</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mise en œuvre d'un MicroService</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mise en œuvre et interconnection de plusieurs MicroServices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mise en Œuvre de Test unitaire sur des classes Simples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mise en Œuvre de Tests unitaire sur des classes Complexes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mise en œuvre de tests unitaires sur l'API Rest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visualisation de la couverture de Tests via SONAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
+    <t>CHOURAQUI Maxime</t>
+  </si>
+  <si>
+    <t>CLEMENT Charles</t>
+  </si>
+  <si>
+    <t>Somme implication</t>
+  </si>
+  <si>
+    <t>Atelier 1</t>
+  </si>
+  <si>
+    <t>Atelier 2</t>
+  </si>
+  <si>
+    <t>Atelier 3</t>
+  </si>
+  <si>
+    <t>Implication dans le groupe</t>
+  </si>
+  <si>
+    <t>Compétences</t>
+  </si>
+  <si>
+    <t>Compréhension</t>
+  </si>
+  <si>
+    <t>Web Statique couplé aux Web Services</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Avantages/Inconvénients Web Statique couplé aux Web Services</t>
+  </si>
+  <si>
+    <t>Web Dynamique</t>
+  </si>
+  <si>
+    <t>Avantages/Inconvénients Web Dynamique</t>
+  </si>
+  <si>
+    <t>Architecture MVC</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Avantages/Inconvénients SOA</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Couverture de Test</t>
+  </si>
+  <si>
+    <t>JEE Overview</t>
+  </si>
+  <si>
+    <t>JEE fonctionnement</t>
+  </si>
+  <si>
+    <t>Avantages/Inconvénients Springboot</t>
+  </si>
+  <si>
+    <t>Architecture MVC en JEE</t>
+  </si>
+  <si>
+    <t>Architecture multi-tiers en JEE</t>
+  </si>
+  <si>
+    <t>Architecture Full REST</t>
+  </si>
+  <si>
+    <t>Injection de dépendance</t>
+  </si>
+  <si>
+    <t>Gestionnaire de dépendance</t>
+  </si>
+  <si>
+    <t>Springboot Overview</t>
+  </si>
+  <si>
+    <t>Springboot fonctionnement</t>
+  </si>
+  <si>
+    <t>Architecture MVC en Springboot</t>
+  </si>
+  <si>
+    <t>Architecture Full Rest en Springboot</t>
+  </si>
+  <si>
+    <t>Architecture SOA</t>
+  </si>
+  <si>
+    <t>Architecture Micro Service</t>
+  </si>
+  <si>
+    <t>Avantages/Inconvénients Micro Service</t>
+  </si>
+  <si>
+    <t>Test Unitaire</t>
+  </si>
+  <si>
+    <t>Test fonctionnel</t>
+  </si>
+  <si>
+    <t>Test de non régression</t>
+  </si>
+  <si>
+    <t>Bonnes pratiques de programmation</t>
+  </si>
+  <si>
+    <t>Mise en œuvre</t>
+  </si>
+  <si>
+    <t>Web Statique couplé aux Web Services (javascript + Ajax)</t>
+  </si>
+  <si>
+    <t>Application Springboot Simple (1 controleur)</t>
+  </si>
+  <si>
+    <t>Application Springboot + Thymeleaf</t>
+  </si>
+  <si>
+    <t>Application Springboot + Thymeleaf + Controller + service</t>
+  </si>
+  <si>
+    <t>Application SpringBoot helloworld</t>
+  </si>
+  <si>
+    <t>Application SpringBoot + REST</t>
+  </si>
+  <si>
+    <t>Application SpringBoot + REST + JPA</t>
+  </si>
+  <si>
+    <t>Application SpringBoot + FULLREST+ JPA + Mysql</t>
+  </si>
+  <si>
+    <t>Respect du MVC en SpringBoot</t>
+  </si>
+  <si>
+    <t>Récupération de dépendances via MAVEN</t>
+  </si>
+  <si>
+    <t>Ajout de dependance dans MAVEN</t>
+  </si>
+  <si>
+    <t>Découpage d'un projet en MicrosService</t>
+  </si>
+  <si>
+    <t>Mise en œuvre d'un MicroService</t>
+  </si>
+  <si>
+    <t>Mise en œuvre et interconnection de plusieurs MicroServices</t>
+  </si>
+  <si>
+    <t>Mise en Œuvre de Test unitaire sur des classes Simples</t>
+  </si>
+  <si>
+    <t>Mise en Œuvre de Tests unitaire sur des classes Complexes</t>
+  </si>
+  <si>
+    <t>Mise en œuvre de tests unitaires sur l'API Rest</t>
+  </si>
+  <si>
+    <t>Visualisation de la couverture de Tests via SONAR</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>ZAGHOUANE Fares</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00\ %"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00\ %"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -317,22 +326,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -347,15 +341,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -378,14 +371,14 @@
     </fill>
   </fills>
   <borders count="7">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thick">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -398,7 +391,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thick">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -407,7 +400,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thick">
         <color rgb="FFFFFFFF"/>
@@ -416,7 +409,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thick">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -427,7 +420,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -436,7 +429,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thick">
         <color rgb="FFFFFFFF"/>
@@ -448,154 +441,85 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAC090"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -609,28 +533,17 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFAC090"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -644,17 +557,8 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -713,1973 +617,2280 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:S55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="32"/>
+    <col min="3" max="3" width="32" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
       <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="6"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="4"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="15">
+        <v>0.33</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="15">
+        <f>D4+G4+J4+M4</f>
+        <v>0.99</v>
+      </c>
+      <c r="Q4" s="15">
+        <f>E4+H4+K4+N4</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="15">
+        <f>F4+I4+L4+O4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="13" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="14" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="13" t="n">
-        <f aca="false">D4+G4+J4+M4</f>
-        <v>0.99</v>
-      </c>
-      <c r="Q4" s="13" t="n">
-        <f aca="false">E4+H4+K4+N4</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="13" t="n">
-        <f aca="false">F4+I4+L4+O4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="19" t="s">
-        <v>10</v>
-      </c>
       <c r="D7" s="20" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M7" s="21"/>
       <c r="N7" s="22"/>
       <c r="O7" s="23"/>
     </row>
-    <row r="8" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+    <row r="8" spans="1:19" ht="25" x14ac:dyDescent="0.75">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M8" s="21"/>
       <c r="N8" s="22"/>
       <c r="O8" s="23"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M9" s="21"/>
       <c r="N9" s="22"/>
       <c r="O9" s="23"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M10" s="21"/>
       <c r="N10" s="22"/>
       <c r="O10" s="23"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M11" s="21"/>
       <c r="N11" s="22"/>
       <c r="O11" s="23"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>19</v>
-      </c>
       <c r="E12" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M12" s="21"/>
       <c r="N12" s="22"/>
       <c r="O12" s="23"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M13" s="21"/>
       <c r="N13" s="22"/>
       <c r="O13" s="23"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M14" s="21"/>
       <c r="N14" s="22"/>
       <c r="O14" s="23"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M15" s="21"/>
       <c r="N15" s="22"/>
       <c r="O15" s="23"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M16" s="21"/>
       <c r="N16" s="22"/>
       <c r="O16" s="23"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M17" s="21"/>
       <c r="N17" s="22"/>
       <c r="O17" s="23"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L18" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M18" s="21"/>
       <c r="N18" s="22"/>
       <c r="O18" s="23"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M19" s="21"/>
       <c r="N19" s="22"/>
       <c r="O19" s="23"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M20" s="21"/>
       <c r="N20" s="22"/>
       <c r="O20" s="23"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M21" s="21"/>
       <c r="N21" s="22"/>
       <c r="O21" s="23"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L22" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M22" s="21"/>
       <c r="N22" s="22"/>
       <c r="O22" s="23"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M23" s="21"/>
       <c r="N23" s="22"/>
       <c r="O23" s="23"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L24" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M24" s="21"/>
       <c r="N24" s="22"/>
       <c r="O24" s="23"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L25" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M25" s="21"/>
       <c r="N25" s="22"/>
       <c r="O25" s="23"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M26" s="21"/>
       <c r="N26" s="22"/>
       <c r="O26" s="23"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J27" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M27" s="21"/>
       <c r="N27" s="22"/>
       <c r="O27" s="23"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>19</v>
-      </c>
       <c r="E28" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L28" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M28" s="21"/>
       <c r="N28" s="22"/>
       <c r="O28" s="23"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J29" s="21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M29" s="21"/>
       <c r="N29" s="22"/>
       <c r="O29" s="23"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L30" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M30" s="21"/>
       <c r="N30" s="22"/>
       <c r="O30" s="23"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L31" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M31" s="21"/>
       <c r="N31" s="22"/>
       <c r="O31" s="23"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M32" s="21"/>
       <c r="N32" s="22"/>
       <c r="O32" s="23"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L33" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M33" s="21"/>
       <c r="N33" s="22"/>
       <c r="O33" s="23"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L34" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M34" s="21"/>
       <c r="N34" s="22"/>
       <c r="O34" s="23"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L35" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M35" s="21"/>
       <c r="N35" s="22"/>
       <c r="O35" s="23"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9"/>
-      <c r="B36" s="18" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A36" s="11"/>
+      <c r="B36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="14"/>
+    </row>
+    <row r="37" spans="1:15" ht="25" x14ac:dyDescent="0.75">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="12"/>
-    </row>
-    <row r="37" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="19" t="s">
-        <v>41</v>
-      </c>
       <c r="D37" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M37" s="21"/>
       <c r="N37" s="22"/>
       <c r="O37" s="23"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
+    <row r="38" spans="1:15" ht="25" x14ac:dyDescent="0.75">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J38" s="21" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M38" s="21"/>
       <c r="N38" s="22"/>
       <c r="O38" s="23"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I39" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J39" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L39" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M39" s="21"/>
       <c r="N39" s="22"/>
       <c r="O39" s="23"/>
     </row>
-    <row r="40" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
+    <row r="40" spans="1:15" ht="25" x14ac:dyDescent="0.75">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I40" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J40" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L40" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M40" s="21"/>
       <c r="N40" s="22"/>
       <c r="O40" s="23"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I41" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J41" s="21" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="K41" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M41" s="21"/>
       <c r="N41" s="22"/>
       <c r="O41" s="23"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I42" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J42" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L42" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M42" s="21"/>
       <c r="N42" s="22"/>
       <c r="O42" s="23"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I43" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J43" s="21" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L43" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M43" s="21"/>
       <c r="N43" s="22"/>
       <c r="O43" s="23"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
+    <row r="44" spans="1:15" ht="25" x14ac:dyDescent="0.75">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I44" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J44" s="21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K44" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L44" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M44" s="21"/>
       <c r="N44" s="22"/>
       <c r="O44" s="23"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
       <c r="C45" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J45" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K45" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L45" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M45" s="21"/>
       <c r="N45" s="22"/>
       <c r="O45" s="23"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
       <c r="C46" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J46" s="21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L46" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M46" s="21"/>
       <c r="N46" s="22"/>
       <c r="O46" s="23"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I47" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J47" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K47" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L47" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M47" s="21"/>
       <c r="N47" s="22"/>
       <c r="O47" s="23"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
       <c r="C48" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J48" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K48" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L48" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M48" s="21"/>
       <c r="N48" s="22"/>
       <c r="O48" s="23"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
       <c r="C49" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I49" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J49" s="21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L49" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M49" s="21"/>
       <c r="N49" s="22"/>
       <c r="O49" s="23"/>
     </row>
-    <row r="50" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
+    <row r="50" spans="1:15" ht="25" x14ac:dyDescent="0.75">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
       <c r="C50" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I50" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J50" s="21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K50" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L50" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M50" s="21"/>
       <c r="N50" s="22"/>
       <c r="O50" s="23"/>
     </row>
-    <row r="51" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
+    <row r="51" spans="1:15" ht="25" x14ac:dyDescent="0.75">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
       <c r="C51" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I51" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J51" s="21" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L51" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M51" s="21"/>
       <c r="N51" s="22"/>
       <c r="O51" s="23"/>
     </row>
-    <row r="52" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
+    <row r="52" spans="1:15" ht="25" x14ac:dyDescent="0.75">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
       <c r="C52" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I52" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J52" s="21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K52" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L52" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M52" s="21"/>
       <c r="N52" s="22"/>
       <c r="O52" s="23"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
+    <row r="53" spans="1:15" ht="25" x14ac:dyDescent="0.75">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
       <c r="C53" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I53" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J53" s="21" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="K53" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L53" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M53" s="21"/>
       <c r="N53" s="22"/>
       <c r="O53" s="23"/>
     </row>
-    <row r="54" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
+    <row r="54" spans="1:15" ht="25" x14ac:dyDescent="0.75">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
       <c r="C54" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I54" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J54" s="24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K54" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L54" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M54" s="24"/>
       <c r="N54" s="25"/>
       <c r="O54" s="26"/>
     </row>
-    <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:R1"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:O35 D37:O54">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2696,9 +2907,9 @@
     </cfRule>
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -2706,81 +2917,68 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:R4">
-    <cfRule type="cellIs" priority="10" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="notEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:R35 D37:R54" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:R35 D37:R54" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Note</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>17</v>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>